--- a/Bot_screening/45m.xlsx
+++ b/Bot_screening/45m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaladvisoryteam82-my.sharepoint.com/personal/davide_galbiati_digitaladvisoryteam82_onmicrosoft_com/Documents/Arkadia_GitHub/Bot_screening/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaladvisoryteam82-my.sharepoint.com/personal/davide_galbiati_digitaladvisoryteam82_onmicrosoft_com/Documents/Screening_bot/Bot_screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_538D14B48770DDE6F070E8914A5ED87656CC7949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33E0F42-743D-4544-BD49-6114C72CCB45}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2301789A81544E8E6E38F4F7495DCE3A8746496F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E37F3756-7DB8-4BE4-AFD9-660C5F2421EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="895">
   <si>
     <t>Open time</t>
   </si>
@@ -1651,13 +1651,1060 @@
     <t>19532.61000000</t>
   </si>
   <si>
-    <t>19583.14000000</t>
-  </si>
-  <si>
-    <t>19584.41000000</t>
+    <t>19563.59000000</t>
+  </si>
+  <si>
+    <t>19605.90000000</t>
   </si>
   <si>
     <t>19528.93000000</t>
+  </si>
+  <si>
+    <t>19602.15000000</t>
+  </si>
+  <si>
+    <t>19620.61000000</t>
+  </si>
+  <si>
+    <t>19562.55000000</t>
+  </si>
+  <si>
+    <t>19650.36000000</t>
+  </si>
+  <si>
+    <t>19664.99000000</t>
+  </si>
+  <si>
+    <t>19649.34000000</t>
+  </si>
+  <si>
+    <t>19554.69000000</t>
+  </si>
+  <si>
+    <t>19680.49000000</t>
+  </si>
+  <si>
+    <t>19527.86000000</t>
+  </si>
+  <si>
+    <t>19553.63000000</t>
+  </si>
+  <si>
+    <t>19416.96000000</t>
+  </si>
+  <si>
+    <t>19569.98000000</t>
+  </si>
+  <si>
+    <t>19361.87000000</t>
+  </si>
+  <si>
+    <t>19415.77000000</t>
+  </si>
+  <si>
+    <t>19325.41000000</t>
+  </si>
+  <si>
+    <t>19457.11000000</t>
+  </si>
+  <si>
+    <t>19280.11000000</t>
+  </si>
+  <si>
+    <t>19375.74000000</t>
+  </si>
+  <si>
+    <t>19429.74000000</t>
+  </si>
+  <si>
+    <t>19315.42000000</t>
+  </si>
+  <si>
+    <t>19375.73000000</t>
+  </si>
+  <si>
+    <t>19400.97000000</t>
+  </si>
+  <si>
+    <t>19442.00000000</t>
+  </si>
+  <si>
+    <t>19360.88000000</t>
+  </si>
+  <si>
+    <t>19399.58000000</t>
+  </si>
+  <si>
+    <t>19406.73000000</t>
+  </si>
+  <si>
+    <t>19439.40000000</t>
+  </si>
+  <si>
+    <t>19381.16000000</t>
+  </si>
+  <si>
+    <t>19407.67000000</t>
+  </si>
+  <si>
+    <t>19272.76000000</t>
+  </si>
+  <si>
+    <t>19412.94000000</t>
+  </si>
+  <si>
+    <t>19255.62000000</t>
+  </si>
+  <si>
+    <t>19273.11000000</t>
+  </si>
+  <si>
+    <t>19159.01000000</t>
+  </si>
+  <si>
+    <t>19290.73000000</t>
+  </si>
+  <si>
+    <t>19091.00000000</t>
+  </si>
+  <si>
+    <t>19247.84000000</t>
+  </si>
+  <si>
+    <t>19295.00000000</t>
+  </si>
+  <si>
+    <t>19144.17000000</t>
+  </si>
+  <si>
+    <t>19365.96000000</t>
+  </si>
+  <si>
+    <t>19433.43000000</t>
+  </si>
+  <si>
+    <t>19247.82000000</t>
+  </si>
+  <si>
+    <t>19364.74000000</t>
+  </si>
+  <si>
+    <t>19299.38000000</t>
+  </si>
+  <si>
+    <t>19379.26000000</t>
+  </si>
+  <si>
+    <t>19217.00000000</t>
+  </si>
+  <si>
+    <t>19298.13000000</t>
+  </si>
+  <si>
+    <t>19298.09000000</t>
+  </si>
+  <si>
+    <t>19324.17000000</t>
+  </si>
+  <si>
+    <t>19255.53000000</t>
+  </si>
+  <si>
+    <t>19369.39000000</t>
+  </si>
+  <si>
+    <t>19369.41000000</t>
+  </si>
+  <si>
+    <t>19279.18000000</t>
+  </si>
+  <si>
+    <t>19368.42000000</t>
+  </si>
+  <si>
+    <t>19327.44000000</t>
+  </si>
+  <si>
+    <t>19371.05000000</t>
+  </si>
+  <si>
+    <t>19316.99000000</t>
+  </si>
+  <si>
+    <t>19270.91000000</t>
+  </si>
+  <si>
+    <t>19360.16000000</t>
+  </si>
+  <si>
+    <t>19258.03000000</t>
+  </si>
+  <si>
+    <t>19270.06000000</t>
+  </si>
+  <si>
+    <t>19275.18000000</t>
+  </si>
+  <si>
+    <t>19290.09000000</t>
+  </si>
+  <si>
+    <t>19213.99000000</t>
+  </si>
+  <si>
+    <t>19293.50000000</t>
+  </si>
+  <si>
+    <t>19323.73000000</t>
+  </si>
+  <si>
+    <t>19274.01000000</t>
+  </si>
+  <si>
+    <t>19290.66000000</t>
+  </si>
+  <si>
+    <t>19303.90000000</t>
+  </si>
+  <si>
+    <t>19248.06000000</t>
+  </si>
+  <si>
+    <t>19291.55000000</t>
+  </si>
+  <si>
+    <t>19296.07000000</t>
+  </si>
+  <si>
+    <t>19303.97000000</t>
+  </si>
+  <si>
+    <t>19255.39000000</t>
+  </si>
+  <si>
+    <t>19282.59000000</t>
+  </si>
+  <si>
+    <t>19306.70000000</t>
+  </si>
+  <si>
+    <t>19270.05000000</t>
+  </si>
+  <si>
+    <t>19283.66000000</t>
+  </si>
+  <si>
+    <t>19287.69000000</t>
+  </si>
+  <si>
+    <t>19304.53000000</t>
+  </si>
+  <si>
+    <t>19252.80000000</t>
+  </si>
+  <si>
+    <t>19255.11000000</t>
+  </si>
+  <si>
+    <t>19308.34000000</t>
+  </si>
+  <si>
+    <t>19235.01000000</t>
+  </si>
+  <si>
+    <t>19254.29000000</t>
+  </si>
+  <si>
+    <t>19180.18000000</t>
+  </si>
+  <si>
+    <t>19146.80000000</t>
+  </si>
+  <si>
+    <t>19181.03000000</t>
+  </si>
+  <si>
+    <t>19214.04000000</t>
+  </si>
+  <si>
+    <t>19243.13000000</t>
+  </si>
+  <si>
+    <t>19170.35000000</t>
+  </si>
+  <si>
+    <t>19182.41000000</t>
+  </si>
+  <si>
+    <t>19243.59000000</t>
+  </si>
+  <si>
+    <t>19166.67000000</t>
+  </si>
+  <si>
+    <t>19194.42000000</t>
+  </si>
+  <si>
+    <t>19206.00000000</t>
+  </si>
+  <si>
+    <t>19147.31000000</t>
+  </si>
+  <si>
+    <t>19195.41000000</t>
+  </si>
+  <si>
+    <t>19241.49000000</t>
+  </si>
+  <si>
+    <t>19246.90000000</t>
+  </si>
+  <si>
+    <t>19190.88000000</t>
+  </si>
+  <si>
+    <t>19224.94000000</t>
+  </si>
+  <si>
+    <t>19281.81000000</t>
+  </si>
+  <si>
+    <t>19223.49000000</t>
+  </si>
+  <si>
+    <t>19226.06000000</t>
+  </si>
+  <si>
+    <t>19171.28000000</t>
+  </si>
+  <si>
+    <t>19237.67000000</t>
+  </si>
+  <si>
+    <t>19160.51000000</t>
+  </si>
+  <si>
+    <t>19200.84000000</t>
+  </si>
+  <si>
+    <t>19204.38000000</t>
+  </si>
+  <si>
+    <t>19140.01000000</t>
+  </si>
+  <si>
+    <t>19201.42000000</t>
+  </si>
+  <si>
+    <t>19143.04000000</t>
+  </si>
+  <si>
+    <t>19203.99000000</t>
+  </si>
+  <si>
+    <t>19104.00000000</t>
+  </si>
+  <si>
+    <t>19144.10000000</t>
+  </si>
+  <si>
+    <t>19174.06000000</t>
+  </si>
+  <si>
+    <t>19178.71000000</t>
+  </si>
+  <si>
+    <t>19117.42000000</t>
+  </si>
+  <si>
+    <t>19173.38000000</t>
+  </si>
+  <si>
+    <t>19196.82000000</t>
+  </si>
+  <si>
+    <t>19250.00000000</t>
+  </si>
+  <si>
+    <t>19065.97000000</t>
+  </si>
+  <si>
+    <t>19197.89000000</t>
+  </si>
+  <si>
+    <t>19154.96000000</t>
+  </si>
+  <si>
+    <t>19233.93000000</t>
+  </si>
+  <si>
+    <t>19146.01000000</t>
+  </si>
+  <si>
+    <t>19223.60000000</t>
+  </si>
+  <si>
+    <t>19232.13000000</t>
+  </si>
+  <si>
+    <t>19136.06000000</t>
+  </si>
+  <si>
+    <t>19222.58000000</t>
+  </si>
+  <si>
+    <t>19211.78000000</t>
+  </si>
+  <si>
+    <t>19301.69000000</t>
+  </si>
+  <si>
+    <t>19206.62000000</t>
+  </si>
+  <si>
+    <t>19211.08000000</t>
+  </si>
+  <si>
+    <t>19145.63000000</t>
+  </si>
+  <si>
+    <t>19239.03000000</t>
+  </si>
+  <si>
+    <t>19095.00000000</t>
+  </si>
+  <si>
+    <t>19183.19000000</t>
+  </si>
+  <si>
+    <t>19193.75000000</t>
+  </si>
+  <si>
+    <t>19122.62000000</t>
+  </si>
+  <si>
+    <t>19171.23000000</t>
+  </si>
+  <si>
+    <t>19220.00000000</t>
+  </si>
+  <si>
+    <t>19182.89000000</t>
+  </si>
+  <si>
+    <t>19227.11000000</t>
+  </si>
+  <si>
+    <t>19152.37000000</t>
+  </si>
+  <si>
+    <t>19183.81000000</t>
+  </si>
+  <si>
+    <t>19190.93000000</t>
+  </si>
+  <si>
+    <t>19249.51000000</t>
+  </si>
+  <si>
+    <t>19134.39000000</t>
+  </si>
+  <si>
+    <t>19189.91000000</t>
+  </si>
+  <si>
+    <t>19194.71000000</t>
+  </si>
+  <si>
+    <t>19174.51000000</t>
+  </si>
+  <si>
+    <t>19193.90000000</t>
+  </si>
+  <si>
+    <t>19175.29000000</t>
+  </si>
+  <si>
+    <t>19208.40000000</t>
+  </si>
+  <si>
+    <t>19156.21000000</t>
+  </si>
+  <si>
+    <t>19182.77000000</t>
+  </si>
+  <si>
+    <t>19206.41000000</t>
+  </si>
+  <si>
+    <t>19164.67000000</t>
+  </si>
+  <si>
+    <t>19189.06000000</t>
+  </si>
+  <si>
+    <t>19100.00000000</t>
+  </si>
+  <si>
+    <t>19123.97000000</t>
+  </si>
+  <si>
+    <t>19158.79000000</t>
+  </si>
+  <si>
+    <t>19084.23000000</t>
+  </si>
+  <si>
+    <t>19123.35000000</t>
+  </si>
+  <si>
+    <t>19087.19000000</t>
+  </si>
+  <si>
+    <t>19165.34000000</t>
+  </si>
+  <si>
+    <t>19073.59000000</t>
+  </si>
+  <si>
+    <t>19008.21000000</t>
+  </si>
+  <si>
+    <t>19089.65000000</t>
+  </si>
+  <si>
+    <t>18900.00000000</t>
+  </si>
+  <si>
+    <t>19007.12000000</t>
+  </si>
+  <si>
+    <t>19060.07000000</t>
+  </si>
+  <si>
+    <t>19079.70000000</t>
+  </si>
+  <si>
+    <t>19002.21000000</t>
+  </si>
+  <si>
+    <t>19060.24000000</t>
+  </si>
+  <si>
+    <t>19062.77000000</t>
+  </si>
+  <si>
+    <t>19082.91000000</t>
+  </si>
+  <si>
+    <t>19033.47000000</t>
+  </si>
+  <si>
+    <t>19068.24000000</t>
+  </si>
+  <si>
+    <t>19014.03000000</t>
+  </si>
+  <si>
+    <t>19033.98000000</t>
+  </si>
+  <si>
+    <t>19147.80000000</t>
+  </si>
+  <si>
+    <t>19168.95000000</t>
+  </si>
+  <si>
+    <t>19031.66000000</t>
+  </si>
+  <si>
+    <t>19148.36000000</t>
+  </si>
+  <si>
+    <t>19174.44000000</t>
+  </si>
+  <si>
+    <t>19210.00000000</t>
+  </si>
+  <si>
+    <t>19109.00000000</t>
+  </si>
+  <si>
+    <t>19141.23000000</t>
+  </si>
+  <si>
+    <t>19177.53000000</t>
+  </si>
+  <si>
+    <t>19116.82000000</t>
+  </si>
+  <si>
+    <t>19140.67000000</t>
+  </si>
+  <si>
+    <t>19104.24000000</t>
+  </si>
+  <si>
+    <t>19146.61000000</t>
+  </si>
+  <si>
+    <t>19100.55000000</t>
+  </si>
+  <si>
+    <t>19103.69000000</t>
+  </si>
+  <si>
+    <t>19137.18000000</t>
+  </si>
+  <si>
+    <t>19154.56000000</t>
+  </si>
+  <si>
+    <t>19092.95000000</t>
+  </si>
+  <si>
+    <t>19137.97000000</t>
+  </si>
+  <si>
+    <t>19131.67000000</t>
+  </si>
+  <si>
+    <t>19167.95000000</t>
+  </si>
+  <si>
+    <t>19118.67000000</t>
+  </si>
+  <si>
+    <t>19131.05000000</t>
+  </si>
+  <si>
+    <t>19114.67000000</t>
+  </si>
+  <si>
+    <t>19147.95000000</t>
+  </si>
+  <si>
+    <t>19106.22000000</t>
+  </si>
+  <si>
+    <t>19153.82000000</t>
+  </si>
+  <si>
+    <t>19163.60000000</t>
+  </si>
+  <si>
+    <t>19105.99000000</t>
+  </si>
+  <si>
+    <t>19160.40000000</t>
+  </si>
+  <si>
+    <t>19195.66000000</t>
+  </si>
+  <si>
+    <t>19131.79000000</t>
+  </si>
+  <si>
+    <t>19161.00000000</t>
+  </si>
+  <si>
+    <t>19199.36000000</t>
+  </si>
+  <si>
+    <t>19253.33000000</t>
+  </si>
+  <si>
+    <t>19157.10000000</t>
+  </si>
+  <si>
+    <t>19208.09000000</t>
+  </si>
+  <si>
+    <t>19231.45000000</t>
+  </si>
+  <si>
+    <t>19189.07000000</t>
+  </si>
+  <si>
+    <t>19163.85000000</t>
+  </si>
+  <si>
+    <t>19282.68000000</t>
+  </si>
+  <si>
+    <t>19152.00000000</t>
+  </si>
+  <si>
+    <t>19160.01000000</t>
+  </si>
+  <si>
+    <t>19196.05000000</t>
+  </si>
+  <si>
+    <t>19128.24000000</t>
+  </si>
+  <si>
+    <t>19236.52000000</t>
+  </si>
+  <si>
+    <t>19264.71000000</t>
+  </si>
+  <si>
+    <t>19136.00000000</t>
+  </si>
+  <si>
+    <t>19326.31000000</t>
+  </si>
+  <si>
+    <t>19347.82000000</t>
+  </si>
+  <si>
+    <t>19235.00000000</t>
+  </si>
+  <si>
+    <t>19325.61000000</t>
+  </si>
+  <si>
+    <t>19277.86000000</t>
+  </si>
+  <si>
+    <t>19338.66000000</t>
+  </si>
+  <si>
+    <t>19250.68000000</t>
+  </si>
+  <si>
+    <t>19278.97000000</t>
+  </si>
+  <si>
+    <t>19176.86000000</t>
+  </si>
+  <si>
+    <t>19284.06000000</t>
+  </si>
+  <si>
+    <t>19143.71000000</t>
+  </si>
+  <si>
+    <t>19177.69000000</t>
+  </si>
+  <si>
+    <t>19145.43000000</t>
+  </si>
+  <si>
+    <t>19194.00000000</t>
+  </si>
+  <si>
+    <t>19105.00000000</t>
+  </si>
+  <si>
+    <t>19145.42000000</t>
+  </si>
+  <si>
+    <t>19099.11000000</t>
+  </si>
+  <si>
+    <t>19165.01000000</t>
+  </si>
+  <si>
+    <t>19063.89000000</t>
+  </si>
+  <si>
+    <t>19099.30000000</t>
+  </si>
+  <si>
+    <t>19001.05000000</t>
+  </si>
+  <si>
+    <t>19101.55000000</t>
+  </si>
+  <si>
+    <t>18964.02000000</t>
+  </si>
+  <si>
+    <t>19002.09000000</t>
+  </si>
+  <si>
+    <t>19061.01000000</t>
+  </si>
+  <si>
+    <t>19117.87000000</t>
+  </si>
+  <si>
+    <t>18990.01000000</t>
+  </si>
+  <si>
+    <t>19061.89000000</t>
+  </si>
+  <si>
+    <t>19063.24000000</t>
+  </si>
+  <si>
+    <t>19088.00000000</t>
+  </si>
+  <si>
+    <t>19028.36000000</t>
+  </si>
+  <si>
+    <t>19063.81000000</t>
+  </si>
+  <si>
+    <t>19031.08000000</t>
+  </si>
+  <si>
+    <t>19064.91000000</t>
+  </si>
+  <si>
+    <t>18929.38000000</t>
+  </si>
+  <si>
+    <t>19031.01000000</t>
+  </si>
+  <si>
+    <t>19065.44000000</t>
+  </si>
+  <si>
+    <t>19089.47000000</t>
+  </si>
+  <si>
+    <t>18994.42000000</t>
+  </si>
+  <si>
+    <t>19066.00000000</t>
+  </si>
+  <si>
+    <t>19031.50000000</t>
+  </si>
+  <si>
+    <t>19098.00000000</t>
+  </si>
+  <si>
+    <t>19025.00000000</t>
+  </si>
+  <si>
+    <t>18996.30000000</t>
+  </si>
+  <si>
+    <t>19042.56000000</t>
+  </si>
+  <si>
+    <t>18979.17000000</t>
+  </si>
+  <si>
+    <t>18996.94000000</t>
+  </si>
+  <si>
+    <t>19041.92000000</t>
+  </si>
+  <si>
+    <t>19050.70000000</t>
+  </si>
+  <si>
+    <t>18991.88000000</t>
+  </si>
+  <si>
+    <t>19054.45000000</t>
+  </si>
+  <si>
+    <t>19065.64000000</t>
+  </si>
+  <si>
+    <t>18999.00000000</t>
+  </si>
+  <si>
+    <t>19053.17000000</t>
+  </si>
+  <si>
+    <t>19032.60000000</t>
+  </si>
+  <si>
+    <t>19066.23000000</t>
+  </si>
+  <si>
+    <t>19022.70000000</t>
+  </si>
+  <si>
+    <t>19069.05000000</t>
+  </si>
+  <si>
+    <t>19083.58000000</t>
+  </si>
+  <si>
+    <t>19022.36000000</t>
+  </si>
+  <si>
+    <t>19069.96000000</t>
+  </si>
+  <si>
+    <t>19110.37000000</t>
+  </si>
+  <si>
+    <t>19131.39000000</t>
+  </si>
+  <si>
+    <t>19109.49000000</t>
+  </si>
+  <si>
+    <t>19060.73000000</t>
+  </si>
+  <si>
+    <t>19125.42000000</t>
+  </si>
+  <si>
+    <t>19058.17000000</t>
+  </si>
+  <si>
+    <t>19067.61000000</t>
+  </si>
+  <si>
+    <t>19082.40000000</t>
+  </si>
+  <si>
+    <t>19066.61000000</t>
+  </si>
+  <si>
+    <t>19049.65000000</t>
+  </si>
+  <si>
+    <t>19069.16000000</t>
+  </si>
+  <si>
+    <t>19050.34000000</t>
+  </si>
+  <si>
+    <t>19043.53000000</t>
+  </si>
+  <si>
+    <t>19066.19000000</t>
+  </si>
+  <si>
+    <t>19026.47000000</t>
+  </si>
+  <si>
+    <t>19044.66000000</t>
+  </si>
+  <si>
+    <t>19071.96000000</t>
+  </si>
+  <si>
+    <t>19030.01000000</t>
+  </si>
+  <si>
+    <t>19044.10000000</t>
+  </si>
+  <si>
+    <t>19062.28000000</t>
+  </si>
+  <si>
+    <t>19084.17000000</t>
+  </si>
+  <si>
+    <t>18991.69000000</t>
+  </si>
+  <si>
+    <t>19027.25000000</t>
+  </si>
+  <si>
+    <t>19063.87000000</t>
+  </si>
+  <si>
+    <t>19018.23000000</t>
+  </si>
+  <si>
+    <t>19026.69000000</t>
+  </si>
+  <si>
+    <t>18980.39000000</t>
+  </si>
+  <si>
+    <t>19039.49000000</t>
+  </si>
+  <si>
+    <t>18939.00000000</t>
+  </si>
+  <si>
+    <t>18981.00000000</t>
+  </si>
+  <si>
+    <t>18965.44000000</t>
+  </si>
+  <si>
+    <t>19011.06000000</t>
+  </si>
+  <si>
+    <t>18987.96000000</t>
+  </si>
+  <si>
+    <t>19030.84000000</t>
+  </si>
+  <si>
+    <t>18956.63000000</t>
+  </si>
+  <si>
+    <t>18971.21000000</t>
+  </si>
+  <si>
+    <t>19008.90000000</t>
+  </si>
+  <si>
+    <t>18961.88000000</t>
+  </si>
+  <si>
+    <t>18945.65000000</t>
+  </si>
+  <si>
+    <t>19011.91000000</t>
+  </si>
+  <si>
+    <t>18940.78000000</t>
+  </si>
+  <si>
+    <t>18944.99000000</t>
+  </si>
+  <si>
+    <t>18818.14000000</t>
+  </si>
+  <si>
+    <t>18948.31000000</t>
+  </si>
+  <si>
+    <t>18650.00000000</t>
+  </si>
+  <si>
+    <t>18817.33000000</t>
+  </si>
+  <si>
+    <t>18953.54000000</t>
+  </si>
+  <si>
+    <t>19019.99000000</t>
+  </si>
+  <si>
+    <t>18762.88000000</t>
+  </si>
+  <si>
+    <t>18952.65000000</t>
+  </si>
+  <si>
+    <t>19114.19000000</t>
+  </si>
+  <si>
+    <t>19129.44000000</t>
+  </si>
+  <si>
+    <t>18895.13000000</t>
+  </si>
+  <si>
+    <t>19114.02000000</t>
+  </si>
+  <si>
+    <t>19039.59000000</t>
+  </si>
+  <si>
+    <t>19121.20000000</t>
+  </si>
+  <si>
+    <t>19033.00000000</t>
   </si>
 </sst>
 </file>
@@ -2026,16 +3073,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +3102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44847.5</v>
       </c>
@@ -2075,7 +3122,7 @@
         <v>-2.2826487448871158E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44847.53125</v>
       </c>
@@ -2095,7 +3142,7 @@
         <v>-8.4197315289753858E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44847.5625</v>
       </c>
@@ -2115,7 +3162,7 @@
         <v>9.8702552678589239E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44847.59375</v>
       </c>
@@ -2135,7 +3182,7 @@
         <v>-4.1262647839794544E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44847.625</v>
       </c>
@@ -2155,7 +3202,7 @@
         <v>2.8746202279039689E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44847.65625</v>
       </c>
@@ -2175,7 +3222,7 @@
         <v>3.9063386679575223E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44847.6875</v>
       </c>
@@ -2195,7 +3242,7 @@
         <v>7.740054929421941E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44847.71875</v>
       </c>
@@ -2215,7 +3262,7 @@
         <v>3.5074228927440328E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44847.75</v>
       </c>
@@ -2235,7 +3282,7 @@
         <v>2.7080212340599638E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44847.78125</v>
       </c>
@@ -2255,7 +3302,7 @@
         <v>6.9732088005915478E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44847.8125</v>
       </c>
@@ -2275,7 +3322,7 @@
         <v>5.6008273009306988E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44847.84375</v>
       </c>
@@ -2295,7 +3342,7 @@
         <v>-3.3786980057917151E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44847.875</v>
       </c>
@@ -2315,7 +3362,7 @@
         <v>3.224539935540157E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44847.90625</v>
       </c>
@@ -2335,7 +3382,7 @@
         <v>1.906765018675733E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44847.9375</v>
       </c>
@@ -2355,7 +3402,7 @@
         <v>-1.07489572790729E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44847.96875</v>
       </c>
@@ -2375,7 +3422,7 @@
         <v>-1.501216743127405E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44848</v>
       </c>
@@ -2395,7 +3442,7 @@
         <v>1.460085323897258E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44848.03125</v>
       </c>
@@ -2415,7 +3462,7 @@
         <v>2.1305039306612262E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44848.0625</v>
       </c>
@@ -2435,7 +3482,7 @@
         <v>1.9011889823709639E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44848.09375</v>
       </c>
@@ -2455,7 +3502,7 @@
         <v>7.2117483367310515E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44848.125</v>
       </c>
@@ -2475,7 +3522,7 @@
         <v>-2.0777460288317419E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44848.15625</v>
       </c>
@@ -2495,7 +3542,7 @@
         <v>-9.5790948738969236E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44848.1875</v>
       </c>
@@ -2515,7 +3562,7 @@
         <v>4.8371623327451378E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44848.21875</v>
       </c>
@@ -2535,7 +3582,7 @@
         <v>-5.3344557391594202E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44848.25</v>
       </c>
@@ -2555,7 +3602,7 @@
         <v>8.9931281593986828E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44848.28125</v>
       </c>
@@ -2575,7 +3622,7 @@
         <v>-6.2088143268377834E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44848.3125</v>
       </c>
@@ -2595,7 +3642,7 @@
         <v>-1.9087505552382029E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44848.34375</v>
       </c>
@@ -2615,7 +3662,7 @@
         <v>-2.2592778143700589E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44848.375</v>
       </c>
@@ -2635,7 +3682,7 @@
         <v>-1.152026751488385E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44848.40625</v>
       </c>
@@ -2655,7 +3702,7 @@
         <v>6.1196787066617282E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44848.4375</v>
       </c>
@@ -2675,7 +3722,7 @@
         <v>-3.4086551435191749E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44848.46875</v>
       </c>
@@ -2695,7 +3742,7 @@
         <v>-5.6601954556063728E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44848.5</v>
       </c>
@@ -2715,7 +3762,7 @@
         <v>6.5226765324998253E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44848.53125</v>
       </c>
@@ -2735,7 +3782,7 @@
         <v>-4.9026392625853862E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44848.5625</v>
       </c>
@@ -2755,7 +3802,7 @@
         <v>-1.323694718815675E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44848.59375</v>
       </c>
@@ -2775,7 +3822,7 @@
         <v>5.6240396335441214E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44848.625</v>
       </c>
@@ -2795,7 +3842,7 @@
         <v>-4.7998396970686599E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44848.65625</v>
       </c>
@@ -2815,7 +3862,7 @@
         <v>-2.277049447747139E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44848.6875</v>
       </c>
@@ -2835,7 +3882,7 @@
         <v>-1.5361571236765491E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44848.71875</v>
       </c>
@@ -2855,7 +3902,7 @@
         <v>3.2767535476143071E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44848.75</v>
       </c>
@@ -2875,7 +3922,7 @@
         <v>-1.0449918736052541E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44848.78125</v>
       </c>
@@ -2895,7 +3942,7 @@
         <v>2.9712183769828771E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44848.8125</v>
       </c>
@@ -2915,7 +3962,7 @@
         <v>-2.656964358378892E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44848.84375</v>
       </c>
@@ -2935,7 +3982,7 @@
         <v>4.8470340742847741E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44848.875</v>
       </c>
@@ -2955,7 +4002,7 @@
         <v>7.7707655455623066E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44848.90625</v>
       </c>
@@ -2975,7 +4022,7 @@
         <v>-2.700124994198686E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44848.9375</v>
       </c>
@@ -2995,7 +4042,7 @@
         <v>2.392280698451842E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44848.96875</v>
       </c>
@@ -3015,7 +4062,7 @@
         <v>3.7402659188231319E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44849</v>
       </c>
@@ -3035,7 +4082,7 @@
         <v>1.465302318984245E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44849.03125</v>
       </c>
@@ -3055,7 +4102,7 @@
         <v>-7.0551016455304883E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44849.0625</v>
       </c>
@@ -3075,7 +4122,7 @@
         <v>-1.8565297951408739E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44849.09375</v>
       </c>
@@ -3095,7 +4142,7 @@
         <v>2.176934104152501E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44849.125</v>
       </c>
@@ -3115,7 +4162,7 @@
         <v>-5.6257207954860167E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44849.15625</v>
       </c>
@@ -3135,7 +4182,7 @@
         <v>-6.1313387989246127E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44849.1875</v>
       </c>
@@ -3155,7 +4202,7 @@
         <v>-1.1222882378145371E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44849.21875</v>
       </c>
@@ -3175,7 +4222,7 @@
         <v>7.0084837617640774E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44849.25</v>
       </c>
@@ -3195,7 +4242,7 @@
         <v>-1.939932999302003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44849.28125</v>
       </c>
@@ -3215,7 +4262,7 @@
         <v>-1.5736326556160429E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44849.3125</v>
       </c>
@@ -3235,7 +4282,7 @@
         <v>1.032241887289322E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44849.34375</v>
       </c>
@@ -3255,7 +4302,7 @@
         <v>-4.7947664612661882E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44849.375</v>
       </c>
@@ -3275,7 +4322,7 @@
         <v>2.5244037053255819E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44849.40625</v>
       </c>
@@ -3295,7 +4342,7 @@
         <v>2.7052430560459812E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44849.4375</v>
       </c>
@@ -3315,7 +4362,7 @@
         <v>-6.5935842964207666E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44849.46875</v>
       </c>
@@ -3335,7 +4382,7 @@
         <v>5.1259271168347807E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44849.5</v>
       </c>
@@ -3355,7 +4402,7 @@
         <v>6.140657045084943E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44849.53125</v>
       </c>
@@ -3375,7 +4422,7 @@
         <v>-3.122669989728372E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44849.5625</v>
       </c>
@@ -3395,7 +4442,7 @@
         <v>1.897568935938681E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44849.59375</v>
       </c>
@@ -3415,7 +4462,7 @@
         <v>-5.841670373177122E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44849.625</v>
       </c>
@@ -3435,7 +4482,7 @@
         <v>-4.2728145050039941E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44849.65625</v>
       </c>
@@ -3455,7 +4502,7 @@
         <v>7.2585285097124847E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44849.6875</v>
       </c>
@@ -3475,7 +4522,7 @@
         <v>-8.5479814858149556E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44849.71875</v>
       </c>
@@ -3495,7 +4542,7 @@
         <v>-1.352541371930449E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44849.75</v>
       </c>
@@ -3515,7 +4562,7 @@
         <v>1.1989447611451809E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44849.78125</v>
       </c>
@@ -3535,7 +4582,7 @@
         <v>-1.808978933052652E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44849.8125</v>
       </c>
@@ -3555,7 +4602,7 @@
         <v>-4.3406413886705968E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44849.84375</v>
       </c>
@@ -3575,7 +4622,7 @@
         <v>2.4357958268782039E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>44849.875</v>
       </c>
@@ -3595,7 +4642,7 @@
         <v>-9.1123712484679844E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>44849.90625</v>
       </c>
@@ -3615,7 +4662,7 @@
         <v>-1.093584201269826E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>44849.9375</v>
       </c>
@@ -3635,7 +4682,7 @@
         <v>-9.8519842913549348E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44849.96875</v>
       </c>
@@ -3655,7 +4702,7 @@
         <v>8.3344223715215836E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44850</v>
       </c>
@@ -3675,7 +4722,7 @@
         <v>3.008118143105711E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>44850.03125</v>
       </c>
@@ -3695,7 +4742,7 @@
         <v>6.0387515312544714E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44850.0625</v>
       </c>
@@ -3715,7 +4762,7 @@
         <v>1.0476971303549089E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44850.09375</v>
       </c>
@@ -3735,7 +4782,7 @@
         <v>-2.2195240864297302E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44850.125</v>
       </c>
@@ -3755,7 +4802,7 @@
         <v>2.233878148484781E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44850.15625</v>
       </c>
@@ -3775,7 +4822,7 @@
         <v>1.637114055591943E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44850.1875</v>
       </c>
@@ -3795,7 +4842,7 @@
         <v>-4.9033148810661837E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44850.21875</v>
       </c>
@@ -3815,7 +4862,7 @@
         <v>5.0363305421072008E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44850.25</v>
       </c>
@@ -3835,7 +4882,7 @@
         <v>-1.2255298706588811E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44850.28125</v>
       </c>
@@ -3855,7 +4902,7 @@
         <v>1.516147229398542E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44850.3125</v>
       </c>
@@ -3875,7 +4922,7 @@
         <v>9.665280212101914E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44850.34375</v>
       </c>
@@ -3895,7 +4942,7 @@
         <v>8.7524975429306023E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44850.375</v>
       </c>
@@ -3915,7 +4962,7 @@
         <v>-1.090496609025214E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44850.40625</v>
       </c>
@@ -3935,7 +4982,7 @@
         <v>-9.3550793222972931E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44850.4375</v>
       </c>
@@ -3955,7 +5002,7 @@
         <v>1.6730477754461881E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44850.46875</v>
       </c>
@@ -3975,7 +5022,7 @@
         <v>9.5469985773604369E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44850.5</v>
       </c>
@@ -3995,7 +5042,7 @@
         <v>-4.5652345376174608E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44850.53125</v>
       </c>
@@ -4015,7 +5062,7 @@
         <v>8.2044528753456657E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44850.5625</v>
       </c>
@@ -4035,7 +5082,7 @@
         <v>-4.5773956082094418E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44850.59375</v>
       </c>
@@ -4055,7 +5102,7 @@
         <v>8.3643686261011328E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44850.625</v>
       </c>
@@ -4075,7 +5122,7 @@
         <v>1.777776383853443E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44850.65625</v>
       </c>
@@ -4095,7 +5142,7 @@
         <v>-1.412544353997063E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44850.6875</v>
       </c>
@@ -4115,7 +5162,7 @@
         <v>2.518749529693919E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44850.71875</v>
       </c>
@@ -4135,7 +5182,7 @@
         <v>-5.0883220918321792E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44850.75</v>
       </c>
@@ -4155,7 +5202,7 @@
         <v>-2.8486901252363061E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44850.78125</v>
       </c>
@@ -4175,7 +5222,7 @@
         <v>2.0924232006962612E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44850.8125</v>
       </c>
@@ -4195,7 +5242,7 @@
         <v>8.158124445311745E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44850.84375</v>
       </c>
@@ -4215,7 +5262,7 @@
         <v>3.6744670599565289E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44850.875</v>
       </c>
@@ -4235,7 +5282,7 @@
         <v>-3.223548510757904E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44850.90625</v>
       </c>
@@ -4255,7 +5302,7 @@
         <v>1.988340879790303E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44850.9375</v>
       </c>
@@ -4275,7 +5322,7 @@
         <v>-8.9248576710522075E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44850.96875</v>
       </c>
@@ -4295,7 +5342,7 @@
         <v>-1.352579465987741E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44851</v>
       </c>
@@ -4315,7 +5362,7 @@
         <v>-1.1810218356661331E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44851.03125</v>
       </c>
@@ -4335,7 +5382,7 @@
         <v>-1.647158742129928E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44851.0625</v>
       </c>
@@ -4355,7 +5402,7 @@
         <v>-6.3152414421455258E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44851.09375</v>
       </c>
@@ -4375,7 +5422,7 @@
         <v>4.6782090273803193E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44851.125</v>
       </c>
@@ -4395,7 +5442,7 @@
         <v>-7.5920259774351999E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44851.15625</v>
       </c>
@@ -4415,7 +5462,7 @@
         <v>-5.1850516264371398E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44851.1875</v>
       </c>
@@ -4435,7 +5482,7 @@
         <v>3.5542546518920271E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44851.21875</v>
       </c>
@@ -4455,7 +5502,7 @@
         <v>1.257273482959306E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44851.25</v>
       </c>
@@ -4475,7 +5522,7 @@
         <v>-1.423293656147212E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44851.28125</v>
       </c>
@@ -4495,7 +5542,7 @@
         <v>8.1164908699864853E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44851.3125</v>
       </c>
@@ -4515,7 +5562,7 @@
         <v>1.6406729043390181E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44851.34375</v>
       </c>
@@ -4535,7 +5582,7 @@
         <v>-1.667013097145491E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44851.375</v>
       </c>
@@ -4555,7 +5602,7 @@
         <v>2.9983800959481632E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44851.40625</v>
       </c>
@@ -4575,7 +5622,7 @@
         <v>3.7694672120539971E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44851.4375</v>
       </c>
@@ -4595,7 +5642,7 @@
         <v>5.2158963400548587E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44851.46875</v>
       </c>
@@ -4615,7 +5662,7 @@
         <v>-1.85751462388787E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44851.5</v>
       </c>
@@ -4635,7 +5682,7 @@
         <v>4.5375632529840414E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44851.53125</v>
       </c>
@@ -4655,7 +5702,7 @@
         <v>1.507672914275016E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44851.5625</v>
       </c>
@@ -4675,7 +5722,7 @@
         <v>3.1267639449022982E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44851.59375</v>
       </c>
@@ -4695,7 +5742,7 @@
         <v>-8.326479896727329E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44851.625</v>
       </c>
@@ -4715,7 +5762,7 @@
         <v>3.5410117557892729E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44851.65625</v>
       </c>
@@ -4735,7 +5782,7 @@
         <v>2.3025416990301689E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44851.6875</v>
       </c>
@@ -4755,7 +5802,7 @@
         <v>-1.9055394671753561E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44851.71875</v>
       </c>
@@ -4775,7 +5822,7 @@
         <v>5.2226895364766626E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44851.75</v>
       </c>
@@ -4795,7 +5842,7 @@
         <v>-1.0096710193681191E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44851.78125</v>
       </c>
@@ -4815,7 +5862,7 @@
         <v>6.8512398898061056E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44851.8125</v>
       </c>
@@ -4835,7 +5882,7 @@
         <v>-1.6963163286577891E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44851.84375</v>
       </c>
@@ -4855,7 +5902,7 @@
         <v>8.9238301632634735E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44851.875</v>
       </c>
@@ -4875,7 +5922,7 @@
         <v>-8.157726283446571E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44851.90625</v>
       </c>
@@ -4895,7 +5942,7 @@
         <v>3.581977257596361E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44851.9375</v>
       </c>
@@ -4915,7 +5962,7 @@
         <v>-1.6796500363098271E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44851.96875</v>
       </c>
@@ -4935,7 +5982,7 @@
         <v>2.0972457025637778E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44852</v>
       </c>
@@ -4955,7 +6002,7 @@
         <v>1.3049607949058969E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44852.03125</v>
       </c>
@@ -4975,7 +6022,7 @@
         <v>-4.5163518503759937E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44852.0625</v>
       </c>
@@ -4995,7 +6042,7 @@
         <v>-1.730224959913399E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44852.09375</v>
       </c>
@@ -5015,7 +6062,7 @@
         <v>-2.1223562711659969E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44852.125</v>
       </c>
@@ -5035,7 +6082,7 @@
         <v>3.9258586885857639E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44852.15625</v>
       </c>
@@ -5055,7 +6102,7 @@
         <v>1.6657091862916141E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44852.1875</v>
       </c>
@@ -5075,7 +6122,7 @@
         <v>-1.434321983089215E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44852.21875</v>
       </c>
@@ -5095,7 +6142,7 @@
         <v>-8.4261667992684716E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44852.25</v>
       </c>
@@ -5115,7 +6162,7 @@
         <v>6.7287186437210581E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44852.28125</v>
       </c>
@@ -5135,7 +6182,7 @@
         <v>-3.7012822408048632E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44852.3125</v>
       </c>
@@ -5155,7 +6202,7 @@
         <v>4.3343021773420267E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44852.34375</v>
       </c>
@@ -5175,7 +6222,7 @@
         <v>-3.946593513615382E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44852.375</v>
       </c>
@@ -5195,7 +6242,7 @@
         <v>-1.501897335539946E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44852.40625</v>
       </c>
@@ -5215,7 +6262,7 @@
         <v>2.29222100886449E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44852.4375</v>
       </c>
@@ -5235,7 +6282,7 @@
         <v>-8.2050736410479129E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44852.46875</v>
       </c>
@@ -5252,7 +6299,2007 @@
         <v>545</v>
       </c>
       <c r="F161">
-        <v>2.586955865089142E-3</v>
+        <v>1.5860655590829681E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>44852.5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>543</v>
+      </c>
+      <c r="C162" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" t="s">
+        <v>547</v>
+      </c>
+      <c r="E162" t="s">
+        <v>548</v>
+      </c>
+      <c r="F162">
+        <v>1.971008388542252E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" s="2">
+        <v>44852.53125</v>
+      </c>
+      <c r="B163" t="s">
+        <v>546</v>
+      </c>
+      <c r="C163" t="s">
+        <v>549</v>
+      </c>
+      <c r="D163" t="s">
+        <v>550</v>
+      </c>
+      <c r="E163" t="s">
+        <v>497</v>
+      </c>
+      <c r="F163">
+        <v>2.4594240937855861E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="2">
+        <v>44852.5625</v>
+      </c>
+      <c r="B164" t="s">
+        <v>551</v>
+      </c>
+      <c r="C164" t="s">
+        <v>552</v>
+      </c>
+      <c r="D164" t="s">
+        <v>553</v>
+      </c>
+      <c r="E164" t="s">
+        <v>554</v>
+      </c>
+      <c r="F164">
+        <v>-4.8169556840077813E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="2">
+        <v>44852.59375</v>
+      </c>
+      <c r="B165" t="s">
+        <v>555</v>
+      </c>
+      <c r="C165" t="s">
+        <v>556</v>
+      </c>
+      <c r="D165" t="s">
+        <v>557</v>
+      </c>
+      <c r="E165" t="s">
+        <v>558</v>
+      </c>
+      <c r="F165">
+        <v>-6.9894950451656231E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" s="2">
+        <v>44852.625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>559</v>
+      </c>
+      <c r="C166" t="s">
+        <v>560</v>
+      </c>
+      <c r="D166" t="s">
+        <v>561</v>
+      </c>
+      <c r="E166" t="s">
+        <v>562</v>
+      </c>
+      <c r="F166">
+        <v>-4.6539488261346613E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" s="2">
+        <v>44852.65625</v>
+      </c>
+      <c r="B167" t="s">
+        <v>560</v>
+      </c>
+      <c r="C167" t="s">
+        <v>563</v>
+      </c>
+      <c r="D167" t="s">
+        <v>564</v>
+      </c>
+      <c r="E167" t="s">
+        <v>565</v>
+      </c>
+      <c r="F167">
+        <v>2.6043431937538058E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" s="2">
+        <v>44852.6875</v>
+      </c>
+      <c r="B168" t="s">
+        <v>566</v>
+      </c>
+      <c r="C168" t="s">
+        <v>567</v>
+      </c>
+      <c r="D168" t="s">
+        <v>568</v>
+      </c>
+      <c r="E168" t="s">
+        <v>569</v>
+      </c>
+      <c r="F168">
+        <v>1.302660596529865E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" s="2">
+        <v>44852.71875</v>
+      </c>
+      <c r="B169" t="s">
+        <v>570</v>
+      </c>
+      <c r="C169" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" t="s">
+        <v>572</v>
+      </c>
+      <c r="E169" t="s">
+        <v>573</v>
+      </c>
+      <c r="F169">
+        <v>3.6856468026616132E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>44852.75</v>
+      </c>
+      <c r="B170" t="s">
+        <v>574</v>
+      </c>
+      <c r="C170" t="s">
+        <v>575</v>
+      </c>
+      <c r="D170" t="s">
+        <v>576</v>
+      </c>
+      <c r="E170" t="s">
+        <v>577</v>
+      </c>
+      <c r="F170">
+        <v>-6.9513754098250776E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>44852.78125</v>
+      </c>
+      <c r="B171" t="s">
+        <v>578</v>
+      </c>
+      <c r="C171" t="s">
+        <v>579</v>
+      </c>
+      <c r="D171" t="s">
+        <v>580</v>
+      </c>
+      <c r="E171" t="s">
+        <v>581</v>
+      </c>
+      <c r="F171">
+        <v>-5.9201654533182326E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="2">
+        <v>44852.8125</v>
+      </c>
+      <c r="B172" t="s">
+        <v>579</v>
+      </c>
+      <c r="C172" t="s">
+        <v>582</v>
+      </c>
+      <c r="D172" t="s">
+        <v>583</v>
+      </c>
+      <c r="E172" t="s">
+        <v>584</v>
+      </c>
+      <c r="F172">
+        <v>4.6364608609735973E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" s="2">
+        <v>44852.84375</v>
+      </c>
+      <c r="B173" t="s">
+        <v>582</v>
+      </c>
+      <c r="C173" t="s">
+        <v>585</v>
+      </c>
+      <c r="D173" t="s">
+        <v>586</v>
+      </c>
+      <c r="E173" t="s">
+        <v>587</v>
+      </c>
+      <c r="F173">
+        <v>6.1367924920406134E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="2">
+        <v>44852.875</v>
+      </c>
+      <c r="B174" t="s">
+        <v>588</v>
+      </c>
+      <c r="C174" t="s">
+        <v>589</v>
+      </c>
+      <c r="D174" t="s">
+        <v>590</v>
+      </c>
+      <c r="E174" t="s">
+        <v>591</v>
+      </c>
+      <c r="F174">
+        <v>-3.3752066900975988E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="2">
+        <v>44852.90625</v>
+      </c>
+      <c r="B175" t="s">
+        <v>592</v>
+      </c>
+      <c r="C175" t="s">
+        <v>593</v>
+      </c>
+      <c r="D175" t="s">
+        <v>594</v>
+      </c>
+      <c r="E175" t="s">
+        <v>595</v>
+      </c>
+      <c r="F175">
+        <v>-2.0727396903675698E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="2">
+        <v>44852.9375</v>
+      </c>
+      <c r="B176" t="s">
+        <v>593</v>
+      </c>
+      <c r="C176" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" t="s">
+        <v>597</v>
+      </c>
+      <c r="E176" t="s">
+        <v>598</v>
+      </c>
+      <c r="F176">
+        <v>3.694666156080694E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="2">
+        <v>44852.96875</v>
+      </c>
+      <c r="B177" t="s">
+        <v>599</v>
+      </c>
+      <c r="C177" t="s">
+        <v>600</v>
+      </c>
+      <c r="D177" t="s">
+        <v>601</v>
+      </c>
+      <c r="E177" t="s">
+        <v>602</v>
+      </c>
+      <c r="F177">
+        <v>-2.1158153323812458E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B178" t="s">
+        <v>600</v>
+      </c>
+      <c r="C178" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" t="s">
+        <v>604</v>
+      </c>
+      <c r="E178" t="s">
+        <v>605</v>
+      </c>
+      <c r="F178">
+        <v>-2.9248570943693959E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="2">
+        <v>44853.03125</v>
+      </c>
+      <c r="B179" t="s">
+        <v>606</v>
+      </c>
+      <c r="C179" t="s">
+        <v>607</v>
+      </c>
+      <c r="D179" t="s">
+        <v>608</v>
+      </c>
+      <c r="E179" t="s">
+        <v>609</v>
+      </c>
+      <c r="F179">
+        <v>2.6569714884120663E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="2">
+        <v>44853.0625</v>
+      </c>
+      <c r="B180" t="s">
+        <v>607</v>
+      </c>
+      <c r="C180" t="s">
+        <v>610</v>
+      </c>
+      <c r="D180" t="s">
+        <v>611</v>
+      </c>
+      <c r="E180" t="s">
+        <v>612</v>
+      </c>
+      <c r="F180">
+        <v>9.5044508014969034E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="2">
+        <v>44853.09375</v>
+      </c>
+      <c r="B181" t="s">
+        <v>610</v>
+      </c>
+      <c r="C181" t="s">
+        <v>613</v>
+      </c>
+      <c r="D181" t="s">
+        <v>614</v>
+      </c>
+      <c r="E181" t="s">
+        <v>615</v>
+      </c>
+      <c r="F181">
+        <v>-1.4719983414103951E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="2">
+        <v>44853.125</v>
+      </c>
+      <c r="B182" t="s">
+        <v>616</v>
+      </c>
+      <c r="C182" t="s">
+        <v>617</v>
+      </c>
+      <c r="D182" t="s">
+        <v>618</v>
+      </c>
+      <c r="E182" t="s">
+        <v>619</v>
+      </c>
+      <c r="F182">
+        <v>2.3429947308538899E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="2">
+        <v>44853.15625</v>
+      </c>
+      <c r="B183" t="s">
+        <v>617</v>
+      </c>
+      <c r="C183" t="s">
+        <v>620</v>
+      </c>
+      <c r="D183" t="s">
+        <v>621</v>
+      </c>
+      <c r="E183" t="s">
+        <v>622</v>
+      </c>
+      <c r="F183">
+        <v>-6.9858784716263797E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="2">
+        <v>44853.1875</v>
+      </c>
+      <c r="B184" t="s">
+        <v>623</v>
+      </c>
+      <c r="C184" t="s">
+        <v>624</v>
+      </c>
+      <c r="D184" t="s">
+        <v>625</v>
+      </c>
+      <c r="E184" t="s">
+        <v>626</v>
+      </c>
+      <c r="F184">
+        <v>2.0898522375932969E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="2">
+        <v>44853.21875</v>
+      </c>
+      <c r="B185" t="s">
+        <v>624</v>
+      </c>
+      <c r="C185" t="s">
+        <v>627</v>
+      </c>
+      <c r="D185" t="s">
+        <v>628</v>
+      </c>
+      <c r="E185" t="s">
+        <v>629</v>
+      </c>
+      <c r="F185">
+        <v>-1.6891602882459281E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="2">
+        <v>44853.25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>630</v>
+      </c>
+      <c r="C186" t="s">
+        <v>631</v>
+      </c>
+      <c r="D186" t="s">
+        <v>138</v>
+      </c>
+      <c r="E186" t="s">
+        <v>632</v>
+      </c>
+      <c r="F186">
+        <v>-3.8490123499750231E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" s="2">
+        <v>44853.28125</v>
+      </c>
+      <c r="B187" t="s">
+        <v>633</v>
+      </c>
+      <c r="C187" t="s">
+        <v>634</v>
+      </c>
+      <c r="D187" t="s">
+        <v>635</v>
+      </c>
+      <c r="E187" t="s">
+        <v>636</v>
+      </c>
+      <c r="F187">
+        <v>1.7209711887214629E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="2">
+        <v>44853.3125</v>
+      </c>
+      <c r="B188" t="s">
+        <v>634</v>
+      </c>
+      <c r="C188" t="s">
+        <v>637</v>
+      </c>
+      <c r="D188" t="s">
+        <v>638</v>
+      </c>
+      <c r="E188" t="s">
+        <v>639</v>
+      </c>
+      <c r="F188">
+        <v>-1.6461920553928801E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="2">
+        <v>44853.34375</v>
+      </c>
+      <c r="B189" t="s">
+        <v>637</v>
+      </c>
+      <c r="C189" t="s">
+        <v>640</v>
+      </c>
+      <c r="D189" t="s">
+        <v>641</v>
+      </c>
+      <c r="E189" t="s">
+        <v>642</v>
+      </c>
+      <c r="F189">
+        <v>6.2609442713394193E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="2">
+        <v>44853.375</v>
+      </c>
+      <c r="B190" t="s">
+        <v>643</v>
+      </c>
+      <c r="C190" t="s">
+        <v>644</v>
+      </c>
+      <c r="D190" t="s">
+        <v>645</v>
+      </c>
+      <c r="E190" t="s">
+        <v>646</v>
+      </c>
+      <c r="F190">
+        <v>2.4005738871949981E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="2">
+        <v>44853.40625</v>
+      </c>
+      <c r="B191" t="s">
+        <v>644</v>
+      </c>
+      <c r="C191" t="s">
+        <v>647</v>
+      </c>
+      <c r="D191" t="s">
+        <v>648</v>
+      </c>
+      <c r="E191" t="s">
+        <v>649</v>
+      </c>
+      <c r="F191">
+        <v>-8.60120500023798E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="2">
+        <v>44853.4375</v>
+      </c>
+      <c r="B192" t="s">
+        <v>650</v>
+      </c>
+      <c r="C192" t="s">
+        <v>651</v>
+      </c>
+      <c r="D192" t="s">
+        <v>652</v>
+      </c>
+      <c r="E192" t="s">
+        <v>653</v>
+      </c>
+      <c r="F192">
+        <v>-2.8492577262321278E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" s="2">
+        <v>44853.46875</v>
+      </c>
+      <c r="B193" t="s">
+        <v>651</v>
+      </c>
+      <c r="C193" t="s">
+        <v>654</v>
+      </c>
+      <c r="D193" t="s">
+        <v>655</v>
+      </c>
+      <c r="E193" t="s">
+        <v>656</v>
+      </c>
+      <c r="F193">
+        <v>1.541889743407916E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" s="2">
+        <v>44853.5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>657</v>
+      </c>
+      <c r="C194" t="s">
+        <v>658</v>
+      </c>
+      <c r="D194" t="s">
+        <v>659</v>
+      </c>
+      <c r="E194" t="s">
+        <v>660</v>
+      </c>
+      <c r="F194">
+        <v>-3.040400137073059E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" s="2">
+        <v>44853.53125</v>
+      </c>
+      <c r="B195" t="s">
+        <v>661</v>
+      </c>
+      <c r="C195" t="s">
+        <v>662</v>
+      </c>
+      <c r="D195" t="s">
+        <v>663</v>
+      </c>
+      <c r="E195" t="s">
+        <v>664</v>
+      </c>
+      <c r="F195">
+        <v>1.5649730204085209E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" s="2">
+        <v>44853.5625</v>
+      </c>
+      <c r="B196" t="s">
+        <v>665</v>
+      </c>
+      <c r="C196" t="s">
+        <v>666</v>
+      </c>
+      <c r="D196" t="s">
+        <v>667</v>
+      </c>
+      <c r="E196" t="s">
+        <v>668</v>
+      </c>
+      <c r="F196">
+        <v>1.2225283179073639E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" s="2">
+        <v>44853.59375</v>
+      </c>
+      <c r="B197" t="s">
+        <v>669</v>
+      </c>
+      <c r="C197" t="s">
+        <v>670</v>
+      </c>
+      <c r="D197" t="s">
+        <v>671</v>
+      </c>
+      <c r="E197" t="s">
+        <v>672</v>
+      </c>
+      <c r="F197">
+        <v>-2.2361832472214552E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" s="2">
+        <v>44853.625</v>
+      </c>
+      <c r="B198" t="s">
+        <v>670</v>
+      </c>
+      <c r="C198" t="s">
+        <v>673</v>
+      </c>
+      <c r="D198" t="s">
+        <v>674</v>
+      </c>
+      <c r="E198" t="s">
+        <v>675</v>
+      </c>
+      <c r="F198">
+        <v>3.583406073413853E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" s="2">
+        <v>44853.65625</v>
+      </c>
+      <c r="B199" t="s">
+        <v>676</v>
+      </c>
+      <c r="C199" t="s">
+        <v>677</v>
+      </c>
+      <c r="D199" t="s">
+        <v>678</v>
+      </c>
+      <c r="E199" t="s">
+        <v>679</v>
+      </c>
+      <c r="F199">
+        <v>-5.6183925362791615E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" s="2">
+        <v>44853.6875</v>
+      </c>
+      <c r="B200" t="s">
+        <v>680</v>
+      </c>
+      <c r="C200" t="s">
+        <v>681</v>
+      </c>
+      <c r="D200" t="s">
+        <v>682</v>
+      </c>
+      <c r="E200" t="s">
+        <v>683</v>
+      </c>
+      <c r="F200">
+        <v>-3.4068881083208608E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" s="2">
+        <v>44853.71875</v>
+      </c>
+      <c r="B201" t="s">
+        <v>681</v>
+      </c>
+      <c r="C201" t="s">
+        <v>684</v>
+      </c>
+      <c r="D201" t="s">
+        <v>685</v>
+      </c>
+      <c r="E201" t="s">
+        <v>686</v>
+      </c>
+      <c r="F201">
+        <v>1.9618053832648839E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" s="2">
+        <v>44853.75</v>
+      </c>
+      <c r="B202" t="s">
+        <v>684</v>
+      </c>
+      <c r="C202" t="s">
+        <v>687</v>
+      </c>
+      <c r="D202" t="s">
+        <v>688</v>
+      </c>
+      <c r="E202" t="s">
+        <v>342</v>
+      </c>
+      <c r="F202">
+        <v>-6.2346252109264037E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" s="2">
+        <v>44853.78125</v>
+      </c>
+      <c r="B203" t="s">
+        <v>687</v>
+      </c>
+      <c r="C203" t="s">
+        <v>689</v>
+      </c>
+      <c r="D203" t="s">
+        <v>690</v>
+      </c>
+      <c r="E203" t="s">
+        <v>691</v>
+      </c>
+      <c r="F203">
+        <v>6.082030208807601E-4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" s="2">
+        <v>44853.8125</v>
+      </c>
+      <c r="B204" t="s">
+        <v>692</v>
+      </c>
+      <c r="C204" t="s">
+        <v>693</v>
+      </c>
+      <c r="D204" t="s">
+        <v>694</v>
+      </c>
+      <c r="E204" t="s">
+        <v>695</v>
+      </c>
+      <c r="F204">
+        <v>3.7114629471408342E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" s="2">
+        <v>44853.84375</v>
+      </c>
+      <c r="B205" t="s">
+        <v>696</v>
+      </c>
+      <c r="C205" t="s">
+        <v>697</v>
+      </c>
+      <c r="D205" t="s">
+        <v>688</v>
+      </c>
+      <c r="E205" t="s">
+        <v>698</v>
+      </c>
+      <c r="F205">
+        <v>2.5013144928763461E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" s="2">
+        <v>44853.875</v>
+      </c>
+      <c r="B206" t="s">
+        <v>699</v>
+      </c>
+      <c r="C206" t="s">
+        <v>700</v>
+      </c>
+      <c r="D206" t="s">
+        <v>701</v>
+      </c>
+      <c r="E206" t="s">
+        <v>702</v>
+      </c>
+      <c r="F206">
+        <v>-9.695788766222904E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" s="2">
+        <v>44853.90625</v>
+      </c>
+      <c r="B207" t="s">
+        <v>700</v>
+      </c>
+      <c r="C207" t="s">
+        <v>703</v>
+      </c>
+      <c r="D207" t="s">
+        <v>704</v>
+      </c>
+      <c r="E207" t="s">
+        <v>705</v>
+      </c>
+      <c r="F207">
+        <v>3.9008536507137897E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" s="2">
+        <v>44853.9375</v>
+      </c>
+      <c r="B208" t="s">
+        <v>703</v>
+      </c>
+      <c r="C208" t="s">
+        <v>332</v>
+      </c>
+      <c r="D208" t="s">
+        <v>706</v>
+      </c>
+      <c r="E208" t="s">
+        <v>707</v>
+      </c>
+      <c r="F208">
+        <v>-1.9877212727880812E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" s="2">
+        <v>44853.96875</v>
+      </c>
+      <c r="B209" t="s">
+        <v>332</v>
+      </c>
+      <c r="C209" t="s">
+        <v>708</v>
+      </c>
+      <c r="D209" t="s">
+        <v>709</v>
+      </c>
+      <c r="E209" t="s">
+        <v>710</v>
+      </c>
+      <c r="F209">
+        <v>-1.0796755645443451E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B210" t="s">
+        <v>711</v>
+      </c>
+      <c r="C210" t="s">
+        <v>712</v>
+      </c>
+      <c r="D210" t="s">
+        <v>713</v>
+      </c>
+      <c r="E210" t="s">
+        <v>714</v>
+      </c>
+      <c r="F210">
+        <v>-1.890882089173699E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" s="2">
+        <v>44854.03125</v>
+      </c>
+      <c r="B211" t="s">
+        <v>712</v>
+      </c>
+      <c r="C211" t="s">
+        <v>715</v>
+      </c>
+      <c r="D211" t="s">
+        <v>716</v>
+      </c>
+      <c r="E211" t="s">
+        <v>717</v>
+      </c>
+      <c r="F211">
+        <v>-4.1378537123588936E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" s="2">
+        <v>44854.0625</v>
+      </c>
+      <c r="B212" t="s">
+        <v>718</v>
+      </c>
+      <c r="C212" t="s">
+        <v>719</v>
+      </c>
+      <c r="D212" t="s">
+        <v>720</v>
+      </c>
+      <c r="E212" t="s">
+        <v>721</v>
+      </c>
+      <c r="F212">
+        <v>2.785798164056455E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" s="2">
+        <v>44854.09375</v>
+      </c>
+      <c r="B213" t="s">
+        <v>722</v>
+      </c>
+      <c r="C213" t="s">
+        <v>723</v>
+      </c>
+      <c r="D213" t="s">
+        <v>724</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213">
+        <v>1.3273704843164811E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" s="2">
+        <v>44854.125</v>
+      </c>
+      <c r="B214" t="s">
+        <v>723</v>
+      </c>
+      <c r="C214" t="s">
+        <v>725</v>
+      </c>
+      <c r="D214" t="s">
+        <v>726</v>
+      </c>
+      <c r="E214" t="s">
+        <v>727</v>
+      </c>
+      <c r="F214">
+        <v>-1.537027409972384E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" s="2">
+        <v>44854.15625</v>
+      </c>
+      <c r="B215" t="s">
+        <v>728</v>
+      </c>
+      <c r="C215" t="s">
+        <v>729</v>
+      </c>
+      <c r="D215" t="s">
+        <v>730</v>
+      </c>
+      <c r="E215" t="s">
+        <v>731</v>
+      </c>
+      <c r="F215">
+        <v>5.9798318586023374E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" s="2">
+        <v>44854.1875</v>
+      </c>
+      <c r="B216" t="s">
+        <v>732</v>
+      </c>
+      <c r="C216" t="s">
+        <v>733</v>
+      </c>
+      <c r="D216" t="s">
+        <v>734</v>
+      </c>
+      <c r="E216" t="s">
+        <v>735</v>
+      </c>
+      <c r="F216">
+        <v>1.3619965365179109E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" s="2">
+        <v>44854.21875</v>
+      </c>
+      <c r="B217" t="s">
+        <v>733</v>
+      </c>
+      <c r="C217" t="s">
+        <v>736</v>
+      </c>
+      <c r="D217" t="s">
+        <v>737</v>
+      </c>
+      <c r="E217" t="s">
+        <v>738</v>
+      </c>
+      <c r="F217">
+        <v>-1.731993215968713E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" s="2">
+        <v>44854.25</v>
+      </c>
+      <c r="B218" t="s">
+        <v>739</v>
+      </c>
+      <c r="C218" t="s">
+        <v>740</v>
+      </c>
+      <c r="D218" t="s">
+        <v>741</v>
+      </c>
+      <c r="E218" t="s">
+        <v>742</v>
+      </c>
+      <c r="F218">
+        <v>-1.9032771580094459E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" s="2">
+        <v>44854.28125</v>
+      </c>
+      <c r="B219" t="s">
+        <v>743</v>
+      </c>
+      <c r="C219" t="s">
+        <v>744</v>
+      </c>
+      <c r="D219" t="s">
+        <v>745</v>
+      </c>
+      <c r="E219" t="s">
+        <v>746</v>
+      </c>
+      <c r="F219">
+        <v>1.7530644603216241E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" s="2">
+        <v>44854.3125</v>
+      </c>
+      <c r="B220" t="s">
+        <v>747</v>
+      </c>
+      <c r="C220" t="s">
+        <v>748</v>
+      </c>
+      <c r="D220" t="s">
+        <v>749</v>
+      </c>
+      <c r="E220" t="s">
+        <v>750</v>
+      </c>
+      <c r="F220">
+        <v>-3.2918851894965398E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" s="2">
+        <v>44854.34375</v>
+      </c>
+      <c r="B221" t="s">
+        <v>751</v>
+      </c>
+      <c r="C221" t="s">
+        <v>752</v>
+      </c>
+      <c r="D221" t="s">
+        <v>753</v>
+      </c>
+      <c r="E221" t="s">
+        <v>754</v>
+      </c>
+      <c r="F221">
+        <v>-8.5619973812211137E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>44854.375</v>
+      </c>
+      <c r="B222" t="s">
+        <v>752</v>
+      </c>
+      <c r="C222" t="s">
+        <v>755</v>
+      </c>
+      <c r="D222" t="s">
+        <v>756</v>
+      </c>
+      <c r="E222" t="s">
+        <v>757</v>
+      </c>
+      <c r="F222">
+        <v>2.0481651004177139E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" s="2">
+        <v>44854.40625</v>
+      </c>
+      <c r="B223" t="s">
+        <v>755</v>
+      </c>
+      <c r="C223" t="s">
+        <v>758</v>
+      </c>
+      <c r="D223" t="s">
+        <v>759</v>
+      </c>
+      <c r="E223" t="s">
+        <v>760</v>
+      </c>
+      <c r="F223">
+        <v>3.4353460562967309E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" s="2">
+        <v>44854.4375</v>
+      </c>
+      <c r="B224" t="s">
+        <v>761</v>
+      </c>
+      <c r="C224" t="s">
+        <v>762</v>
+      </c>
+      <c r="D224" t="s">
+        <v>763</v>
+      </c>
+      <c r="E224" t="s">
+        <v>764</v>
+      </c>
+      <c r="F224">
+        <v>2.0019831950316052E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" s="2">
+        <v>44854.46875</v>
+      </c>
+      <c r="B225" t="s">
+        <v>762</v>
+      </c>
+      <c r="C225" t="s">
+        <v>765</v>
+      </c>
+      <c r="D225" t="s">
+        <v>766</v>
+      </c>
+      <c r="E225" t="s">
+        <v>767</v>
+      </c>
+      <c r="F225">
+        <v>4.5470265675520238E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" s="2">
+        <v>44854.5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>765</v>
+      </c>
+      <c r="C226" t="s">
+        <v>768</v>
+      </c>
+      <c r="D226" t="s">
+        <v>769</v>
+      </c>
+      <c r="E226" t="s">
+        <v>770</v>
+      </c>
+      <c r="F226">
+        <v>-2.3031962053489752E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" s="2">
+        <v>44854.53125</v>
+      </c>
+      <c r="B227" t="s">
+        <v>768</v>
+      </c>
+      <c r="C227" t="s">
+        <v>771</v>
+      </c>
+      <c r="D227" t="s">
+        <v>772</v>
+      </c>
+      <c r="E227" t="s">
+        <v>773</v>
+      </c>
+      <c r="F227">
+        <v>-2.003772728340154E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" s="2">
+        <v>44854.5625</v>
+      </c>
+      <c r="B228" t="s">
+        <v>771</v>
+      </c>
+      <c r="C228" t="s">
+        <v>774</v>
+      </c>
+      <c r="D228" t="s">
+        <v>775</v>
+      </c>
+      <c r="E228" t="s">
+        <v>776</v>
+      </c>
+      <c r="F228">
+        <v>3.9932129471749777E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="2">
+        <v>44854.59375</v>
+      </c>
+      <c r="B229" t="s">
+        <v>774</v>
+      </c>
+      <c r="C229" t="s">
+        <v>777</v>
+      </c>
+      <c r="D229" t="s">
+        <v>778</v>
+      </c>
+      <c r="E229" t="s">
+        <v>779</v>
+      </c>
+      <c r="F229">
+        <v>4.6676841757241367E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" s="2">
+        <v>44854.625</v>
+      </c>
+      <c r="B230" t="s">
+        <v>780</v>
+      </c>
+      <c r="C230" t="s">
+        <v>781</v>
+      </c>
+      <c r="D230" t="s">
+        <v>782</v>
+      </c>
+      <c r="E230" t="s">
+        <v>783</v>
+      </c>
+      <c r="F230">
+        <v>-2.4708146340529482E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" s="2">
+        <v>44854.65625</v>
+      </c>
+      <c r="B231" t="s">
+        <v>784</v>
+      </c>
+      <c r="C231" t="s">
+        <v>785</v>
+      </c>
+      <c r="D231" t="s">
+        <v>786</v>
+      </c>
+      <c r="E231" t="s">
+        <v>787</v>
+      </c>
+      <c r="F231">
+        <v>-5.2964447789482826E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" s="2">
+        <v>44854.6875</v>
+      </c>
+      <c r="B232" t="s">
+        <v>788</v>
+      </c>
+      <c r="C232" t="s">
+        <v>789</v>
+      </c>
+      <c r="D232" t="s">
+        <v>790</v>
+      </c>
+      <c r="E232" t="s">
+        <v>791</v>
+      </c>
+      <c r="F232">
+        <v>-1.682162971661258E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" s="2">
+        <v>44854.71875</v>
+      </c>
+      <c r="B233" t="s">
+        <v>792</v>
+      </c>
+      <c r="C233" t="s">
+        <v>793</v>
+      </c>
+      <c r="D233" t="s">
+        <v>794</v>
+      </c>
+      <c r="E233" t="s">
+        <v>795</v>
+      </c>
+      <c r="F233">
+        <v>-2.4188552666902928E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" s="2">
+        <v>44854.75</v>
+      </c>
+      <c r="B234" t="s">
+        <v>796</v>
+      </c>
+      <c r="C234" t="s">
+        <v>797</v>
+      </c>
+      <c r="D234" t="s">
+        <v>798</v>
+      </c>
+      <c r="E234" t="s">
+        <v>799</v>
+      </c>
+      <c r="F234">
+        <v>-5.1441675872937751E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" s="2">
+        <v>44854.78125</v>
+      </c>
+      <c r="B235" t="s">
+        <v>800</v>
+      </c>
+      <c r="C235" t="s">
+        <v>801</v>
+      </c>
+      <c r="D235" t="s">
+        <v>802</v>
+      </c>
+      <c r="E235" t="s">
+        <v>803</v>
+      </c>
+      <c r="F235">
+        <v>3.1007115533079909E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" s="2">
+        <v>44854.8125</v>
+      </c>
+      <c r="B236" t="s">
+        <v>804</v>
+      </c>
+      <c r="C236" t="s">
+        <v>805</v>
+      </c>
+      <c r="D236" t="s">
+        <v>806</v>
+      </c>
+      <c r="E236" t="s">
+        <v>807</v>
+      </c>
+      <c r="F236">
+        <v>7.0821938433291909E-5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" s="2">
+        <v>44854.84375</v>
+      </c>
+      <c r="B237" t="s">
+        <v>808</v>
+      </c>
+      <c r="C237" t="s">
+        <v>809</v>
+      </c>
+      <c r="D237" t="s">
+        <v>810</v>
+      </c>
+      <c r="E237" t="s">
+        <v>811</v>
+      </c>
+      <c r="F237">
+        <v>-1.716865621300231E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" s="2">
+        <v>44854.875</v>
+      </c>
+      <c r="B238" t="s">
+        <v>812</v>
+      </c>
+      <c r="C238" t="s">
+        <v>813</v>
+      </c>
+      <c r="D238" t="s">
+        <v>814</v>
+      </c>
+      <c r="E238" t="s">
+        <v>815</v>
+      </c>
+      <c r="F238">
+        <v>1.809152535782404E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" s="2">
+        <v>44854.90625</v>
+      </c>
+      <c r="B239" t="s">
+        <v>816</v>
+      </c>
+      <c r="C239" t="s">
+        <v>817</v>
+      </c>
+      <c r="D239" t="s">
+        <v>818</v>
+      </c>
+      <c r="E239" t="s">
+        <v>819</v>
+      </c>
+      <c r="F239">
+        <v>-1.8095038288052029E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" s="2">
+        <v>44854.9375</v>
+      </c>
+      <c r="B240" t="s">
+        <v>817</v>
+      </c>
+      <c r="C240" t="s">
+        <v>820</v>
+      </c>
+      <c r="D240" t="s">
+        <v>821</v>
+      </c>
+      <c r="E240" t="s">
+        <v>822</v>
+      </c>
+      <c r="F240">
+        <v>-1.8495651945459231E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" s="2">
+        <v>44854.96875</v>
+      </c>
+      <c r="B241" t="s">
+        <v>823</v>
+      </c>
+      <c r="C241" t="s">
+        <v>824</v>
+      </c>
+      <c r="D241" t="s">
+        <v>825</v>
+      </c>
+      <c r="E241" t="s">
+        <v>826</v>
+      </c>
+      <c r="F241">
+        <v>2.3677497533813111E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B242" t="s">
+        <v>824</v>
+      </c>
+      <c r="C242" t="s">
+        <v>827</v>
+      </c>
+      <c r="D242" t="s">
+        <v>828</v>
+      </c>
+      <c r="E242" t="s">
+        <v>829</v>
+      </c>
+      <c r="F242">
+        <v>6.580218801466698E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" s="2">
+        <v>44855.03125</v>
+      </c>
+      <c r="B243" t="s">
+        <v>830</v>
+      </c>
+      <c r="C243" t="s">
+        <v>831</v>
+      </c>
+      <c r="D243" t="s">
+        <v>832</v>
+      </c>
+      <c r="E243" t="s">
+        <v>833</v>
+      </c>
+      <c r="F243">
+        <v>-1.0796103745465821E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244" s="2">
+        <v>44855.0625</v>
+      </c>
+      <c r="B244" t="s">
+        <v>831</v>
+      </c>
+      <c r="C244" t="s">
+        <v>834</v>
+      </c>
+      <c r="D244" t="s">
+        <v>835</v>
+      </c>
+      <c r="E244" t="s">
+        <v>836</v>
+      </c>
+      <c r="F244">
+        <v>1.915135084013783E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" s="2">
+        <v>44855.09375</v>
+      </c>
+      <c r="B245" t="s">
+        <v>837</v>
+      </c>
+      <c r="C245" t="s">
+        <v>838</v>
+      </c>
+      <c r="D245" t="s">
+        <v>839</v>
+      </c>
+      <c r="E245" t="s">
+        <v>834</v>
+      </c>
+      <c r="F245">
+        <v>2.119039578478395E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" s="2">
+        <v>44855.125</v>
+      </c>
+      <c r="B246" t="s">
+        <v>840</v>
+      </c>
+      <c r="C246" t="s">
+        <v>841</v>
+      </c>
+      <c r="D246" t="s">
+        <v>842</v>
+      </c>
+      <c r="E246" t="s">
+        <v>843</v>
+      </c>
+      <c r="F246">
+        <v>-2.5516117907909649E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" s="2">
+        <v>44855.15625</v>
+      </c>
+      <c r="B247" t="s">
+        <v>841</v>
+      </c>
+      <c r="C247" t="s">
+        <v>844</v>
+      </c>
+      <c r="D247" t="s">
+        <v>845</v>
+      </c>
+      <c r="E247" t="s">
+        <v>25</v>
+      </c>
+      <c r="F247">
+        <v>3.6095154802575871E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" s="2">
+        <v>44855.1875</v>
+      </c>
+      <c r="B248" t="s">
+        <v>846</v>
+      </c>
+      <c r="C248" t="s">
+        <v>847</v>
+      </c>
+      <c r="D248" t="s">
+        <v>848</v>
+      </c>
+      <c r="E248" t="s">
+        <v>819</v>
+      </c>
+      <c r="F248">
+        <v>-8.8951313316835696E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249" s="2">
+        <v>44855.21875</v>
+      </c>
+      <c r="B249" t="s">
+        <v>849</v>
+      </c>
+      <c r="C249" t="s">
+        <v>850</v>
+      </c>
+      <c r="D249" t="s">
+        <v>851</v>
+      </c>
+      <c r="E249" t="s">
+        <v>852</v>
+      </c>
+      <c r="F249">
+        <v>-3.5747393484847567E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" s="2">
+        <v>44855.25</v>
+      </c>
+      <c r="B250" t="s">
+        <v>850</v>
+      </c>
+      <c r="C250" t="s">
+        <v>853</v>
+      </c>
+      <c r="D250" t="s">
+        <v>854</v>
+      </c>
+      <c r="E250" t="s">
+        <v>855</v>
+      </c>
+      <c r="F250">
+        <v>5.9337738329029267E-5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" s="2">
+        <v>44855.28125</v>
+      </c>
+      <c r="B251" t="s">
+        <v>856</v>
+      </c>
+      <c r="C251" t="s">
+        <v>857</v>
+      </c>
+      <c r="D251" t="s">
+        <v>858</v>
+      </c>
+      <c r="E251" t="s">
+        <v>859</v>
+      </c>
+      <c r="F251">
+        <v>9.5462636722135953E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252" s="2">
+        <v>44855.3125</v>
+      </c>
+      <c r="B252" t="s">
+        <v>857</v>
+      </c>
+      <c r="C252" t="s">
+        <v>860</v>
+      </c>
+      <c r="D252" t="s">
+        <v>861</v>
+      </c>
+      <c r="E252" t="s">
+        <v>862</v>
+      </c>
+      <c r="F252">
+        <v>-1.8376605526725469E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253" s="2">
+        <v>44855.34375</v>
+      </c>
+      <c r="B253" t="s">
+        <v>863</v>
+      </c>
+      <c r="C253" t="s">
+        <v>864</v>
+      </c>
+      <c r="D253" t="s">
+        <v>865</v>
+      </c>
+      <c r="E253" t="s">
+        <v>866</v>
+      </c>
+      <c r="F253">
+        <v>-2.433423785219567E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" s="2">
+        <v>44855.375</v>
+      </c>
+      <c r="B254" t="s">
+        <v>867</v>
+      </c>
+      <c r="C254" t="s">
+        <v>868</v>
+      </c>
+      <c r="D254" t="s">
+        <v>869</v>
+      </c>
+      <c r="E254" t="s">
+        <v>717</v>
+      </c>
+      <c r="F254">
+        <v>-8.1976713555667819E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255" s="2">
+        <v>44855.40625</v>
+      </c>
+      <c r="B255" t="s">
+        <v>868</v>
+      </c>
+      <c r="C255" t="s">
+        <v>870</v>
+      </c>
+      <c r="D255" t="s">
+        <v>871</v>
+      </c>
+      <c r="E255" t="s">
+        <v>872</v>
+      </c>
+      <c r="F255">
+        <v>1.187423017868314E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256" s="2">
+        <v>44855.4375</v>
+      </c>
+      <c r="B256" t="s">
+        <v>870</v>
+      </c>
+      <c r="C256" t="s">
+        <v>873</v>
+      </c>
+      <c r="D256" t="s">
+        <v>874</v>
+      </c>
+      <c r="E256" t="s">
+        <v>875</v>
+      </c>
+      <c r="F256">
+        <v>-8.8213794425520177E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257" s="2">
+        <v>44855.46875</v>
+      </c>
+      <c r="B257" t="s">
+        <v>873</v>
+      </c>
+      <c r="C257" t="s">
+        <v>876</v>
+      </c>
+      <c r="D257" t="s">
+        <v>877</v>
+      </c>
+      <c r="E257" t="s">
+        <v>878</v>
+      </c>
+      <c r="F257">
+        <v>-1.3473046790372189E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258" s="2">
+        <v>44855.5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>879</v>
+      </c>
+      <c r="C258" t="s">
+        <v>880</v>
+      </c>
+      <c r="D258" t="s">
+        <v>881</v>
+      </c>
+      <c r="E258" t="s">
+        <v>882</v>
+      </c>
+      <c r="F258">
+        <v>-6.6957016076546966E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259" s="2">
+        <v>44855.53125</v>
+      </c>
+      <c r="B259" t="s">
+        <v>883</v>
+      </c>
+      <c r="C259" t="s">
+        <v>884</v>
+      </c>
+      <c r="D259" t="s">
+        <v>885</v>
+      </c>
+      <c r="E259" t="s">
+        <v>886</v>
+      </c>
+      <c r="F259">
+        <v>7.2385402179798676E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260" s="2">
+        <v>44855.5625</v>
+      </c>
+      <c r="B260" t="s">
+        <v>887</v>
+      </c>
+      <c r="C260" t="s">
+        <v>888</v>
+      </c>
+      <c r="D260" t="s">
+        <v>889</v>
+      </c>
+      <c r="E260" t="s">
+        <v>890</v>
+      </c>
+      <c r="F260">
+        <v>8.5233463394299592E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261" s="2">
+        <v>44855.59375</v>
+      </c>
+      <c r="B261" t="s">
+        <v>891</v>
+      </c>
+      <c r="C261" t="s">
+        <v>892</v>
+      </c>
+      <c r="D261" t="s">
+        <v>893</v>
+      </c>
+      <c r="E261" t="s">
+        <v>894</v>
+      </c>
+      <c r="F261">
+        <v>-3.894000320183839E-3</v>
       </c>
     </row>
   </sheetData>
